--- a/frameworks/hbv_v14_gamma_mav.xlsx
+++ b/frameworks/hbv_v14_gamma_mav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seama\Dropbox\WHO Regional HBV Model\mav_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\hbv-globalinvcase\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A560463-1A45-4BF7-8D79-54911CB8792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF59C89-C598-4C8E-A49A-ADD9CEF7567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -2910,7 +2910,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="757">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -7018,7 +7018,7 @@
   <dimension ref="A1:OH398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z46" sqref="Z46"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12542,9 +12542,9 @@
   </sheetPr>
   <dimension ref="A1:P235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13456,7 +13456,9 @@
       <c r="B48" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="I48" s="74"/>
+      <c r="I48" s="74" t="s">
+        <v>113</v>
+      </c>
       <c r="J48" s="74"/>
       <c r="K48" s="74" t="s">
         <v>50</v>
@@ -13486,7 +13488,9 @@
       <c r="B50" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="I50" s="74"/>
+      <c r="I50" s="74" t="s">
+        <v>113</v>
+      </c>
       <c r="J50" s="74"/>
       <c r="K50" s="74" t="s">
         <v>50</v>
